--- a/insertData.xlsx
+++ b/insertData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luana.scardua\Downloads\SQLite-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Meu Drive\2021-2_LP2\trabalhoLP2\kPython-SQLite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CC5882-366A-4A8B-B41B-6FAFAA5178A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE6EAFB-C04B-450F-AF07-8A990263E57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6CFF9A66-05E6-4823-8BFA-658619B48BFB}"/>
+    <workbookView xWindow="46170" yWindow="2850" windowWidth="16065" windowHeight="12315" activeTab="3" xr2:uid="{6CFF9A66-05E6-4823-8BFA-658619B48BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="usuario" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -89,13 +89,124 @@
   </si>
   <si>
     <t>PROJ</t>
+  </si>
+  <si>
+    <t>Andre Almeida</t>
+  </si>
+  <si>
+    <t>PROF</t>
+  </si>
+  <si>
+    <t>Bruno Bento</t>
+  </si>
+  <si>
+    <t>Carla Caetano</t>
+  </si>
+  <si>
+    <t>Dora Donato</t>
+  </si>
+  <si>
+    <t>Ella Escobar</t>
+  </si>
+  <si>
+    <t>PRV</t>
+  </si>
+  <si>
+    <t>Prova</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>SEM01</t>
+  </si>
+  <si>
+    <t>PROJ2</t>
+  </si>
+  <si>
+    <t>PRV01</t>
+  </si>
+  <si>
+    <t>Prova do 1º bimestre</t>
+  </si>
+  <si>
+    <t>Projeto sobre luz</t>
+  </si>
+  <si>
+    <t>Seminário em grupo</t>
+  </si>
+  <si>
+    <t>PRV02</t>
+  </si>
+  <si>
+    <t>Prova do 2º bimestre</t>
+  </si>
+  <si>
+    <t>PRV1</t>
+  </si>
+  <si>
+    <t>Prova final</t>
+  </si>
+  <si>
+    <t>idUser</t>
+  </si>
+  <si>
+    <t>idAvaliacao</t>
+  </si>
+  <si>
+    <t>dataConclusao</t>
+  </si>
+  <si>
+    <t>notaAtribuida</t>
+  </si>
+  <si>
+    <t>situacao</t>
+  </si>
+  <si>
+    <t>Fernada Ferreira</t>
+  </si>
+  <si>
+    <t>Gisele Gente</t>
+  </si>
+  <si>
+    <t>Heitor Hera</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>aprovado</t>
+  </si>
+  <si>
+    <t>reprovado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -106,6 +217,19 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -130,13 +254,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,18 +579,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F016AF-984E-4592-8A35-D09FFCDCC7C2}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C16" sqref="C16:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -490,7 +618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -498,6 +626,94 @@
         <v>6</v>
       </c>
       <c r="D3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
         <v>14</v>
       </c>
     </row>
@@ -509,15 +725,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F405A2-8FE6-4448-B6F8-DFECE18E1EBE}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -525,7 +741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -533,12 +749,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -549,80 +773,426 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E4AC80-24BD-4308-9E1D-510E74F54FEE}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="E2" s="3">
         <v>44256</v>
       </c>
-      <c r="D2" s="3">
+      <c r="F2" s="6">
+        <v>44307</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44452</v>
+      </c>
+      <c r="F3" s="3">
         <v>44521</v>
       </c>
-      <c r="E2">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44489</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44499</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44510</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44515</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44516</v>
+      </c>
+      <c r="F6" s="3">
+        <v>44520</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3">
-        <v>44452</v>
-      </c>
-      <c r="D3" s="3">
-        <v>44521</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4432D9D-587E-488B-88B4-D4CEF7C3FEB7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="B15:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44497</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44306</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44496</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44307</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44515</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44516</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44514</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44520</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44519</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/insertData.xlsx
+++ b/insertData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Meu Drive\2021-2_LP2\trabalhoLP2\kPython-SQLite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE6EAFB-C04B-450F-AF07-8A990263E57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A04150-0FAD-477A-8625-10D013F4D480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46170" yWindow="2850" windowWidth="16065" windowHeight="12315" activeTab="3" xr2:uid="{6CFF9A66-05E6-4823-8BFA-658619B48BFB}"/>
+    <workbookView xWindow="2688" yWindow="2628" windowWidth="15216" windowHeight="9852" activeTab="3" xr2:uid="{6CFF9A66-05E6-4823-8BFA-658619B48BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="usuario" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>reprovado</t>
+  </si>
+  <si>
+    <t>7.5</t>
   </si>
 </sst>
 </file>
@@ -989,7 +992,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="B15:D26"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1134,7 @@
         <v>44514</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
         <v>52</v>

--- a/insertData.xlsx
+++ b/insertData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luana.scardua\Downloads\SQLite-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luana\Documents\SQLite-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CC5882-366A-4A8B-B41B-6FAFAA5178A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD60F51-605D-409E-9AC1-A5187D657702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6CFF9A66-05E6-4823-8BFA-658619B48BFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6CFF9A66-05E6-4823-8BFA-658619B48BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="usuario" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="avaliacao" sheetId="4" r:id="rId3"/>
     <sheet name="avaliacaoAluno" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -89,6 +89,24 @@
   </si>
   <si>
     <t>PROJ</t>
+  </si>
+  <si>
+    <t>ID User</t>
+  </si>
+  <si>
+    <t>ID Avaliação</t>
+  </si>
+  <si>
+    <t>data conclusão</t>
+  </si>
+  <si>
+    <t>nota</t>
+  </si>
+  <si>
+    <t>situação</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -451,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F016AF-984E-4592-8A35-D09FFCDCC7C2}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -462,7 +480,7 @@
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,11 +493,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -490,7 +510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -509,23 +529,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F405A2-8FE6-4448-B6F8-DFECE18E1EBE}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -533,7 +556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -549,80 +572,114 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E4AC80-24BD-4308-9E1D-510E74F54FEE}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44256</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44521</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44452</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44521</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4432D9D-587E-488B-88B4-D4CEF7C3FEB7}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3">
-        <v>44256</v>
-      </c>
-      <c r="D2" s="3">
-        <v>44521</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3">
-        <v>44452</v>
-      </c>
-      <c r="D3" s="3">
-        <v>44521</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4432D9D-587E-488B-88B4-D4CEF7C3FEB7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/insertData.xlsx
+++ b/insertData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luana\Documents\SQLite-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD60F51-605D-409E-9AC1-A5187D657702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFCAA81-7D03-48B4-8E6B-4E683C78C792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6CFF9A66-05E6-4823-8BFA-658619B48BFB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -91,29 +91,125 @@
     <t>PROJ</t>
   </si>
   <si>
-    <t>ID User</t>
-  </si>
-  <si>
-    <t>ID Avaliação</t>
-  </si>
-  <si>
-    <t>data conclusão</t>
-  </si>
-  <si>
-    <t>nota</t>
-  </si>
-  <si>
-    <t>situação</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>Andre Almeida</t>
+  </si>
+  <si>
+    <t>PROF</t>
+  </si>
+  <si>
+    <t>Bruno Bento</t>
+  </si>
+  <si>
+    <t>Carla Caetano</t>
+  </si>
+  <si>
+    <t>Dora Donato</t>
+  </si>
+  <si>
+    <t>Ella Escobar</t>
+  </si>
+  <si>
+    <t>PRV</t>
+  </si>
+  <si>
+    <t>Prova</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>SEM01</t>
+  </si>
+  <si>
+    <t>PROJ2</t>
+  </si>
+  <si>
+    <t>PRV01</t>
+  </si>
+  <si>
+    <t>Prova do 1º bimestre</t>
+  </si>
+  <si>
+    <t>Projeto sobre luz</t>
+  </si>
+  <si>
+    <t>Seminário em grupo</t>
+  </si>
+  <si>
+    <t>PRV02</t>
+  </si>
+  <si>
+    <t>Prova do 2º bimestre</t>
+  </si>
+  <si>
+    <t>PRV1</t>
+  </si>
+  <si>
+    <t>Prova final</t>
+  </si>
+  <si>
+    <t>idUser</t>
+  </si>
+  <si>
+    <t>idAvaliacao</t>
+  </si>
+  <si>
+    <t>dataConclusao</t>
+  </si>
+  <si>
+    <t>notaAtribuida</t>
+  </si>
+  <si>
+    <t>Fernada Ferreira</t>
+  </si>
+  <si>
+    <t>Gisele Gente</t>
+  </si>
+  <si>
+    <t>Heitor Hera</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>notaAprovacao</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -124,6 +220,24 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -148,13 +262,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F016AF-984E-4592-8A35-D09FFCDCC7C2}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -480,7 +600,7 @@
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,13 +613,14 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -510,7 +631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -518,6 +639,94 @@
         <v>6</v>
       </c>
       <c r="D3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
         <v>14</v>
       </c>
     </row>
@@ -529,26 +738,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F405A2-8FE6-4448-B6F8-DFECE18E1EBE}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -556,12 +765,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -572,22 +789,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E4AC80-24BD-4308-9E1D-510E74F54FEE}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -595,88 +814,304 @@
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>44256</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="9">
+        <v>44307</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44452</v>
+      </c>
+      <c r="F3" s="3">
         <v>44521</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3">
-        <v>44452</v>
-      </c>
-      <c r="E3" s="3">
-        <v>44521</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
+      <c r="G3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44489</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44499</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44510</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44515</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44516</v>
+      </c>
+      <c r="F6" s="3">
+        <v>44520</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4432D9D-587E-488B-88B4-D4CEF7C3FEB7}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44497</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44306</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44496</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44307</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44515</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44516</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44514</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44520</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44519</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/insertData.xlsx
+++ b/insertData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luana\Documents\SQLite-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0156DF4B-E811-42FB-B27A-FC0AA2154DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202A60E6-5BE2-4160-ABAC-8C763D7B7B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usuario" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="104">
   <si>
     <t>Id</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>ESTD</t>
-  </si>
-  <si>
-    <t>Inserido</t>
   </si>
   <si>
     <t>Hermione Granger</t>
@@ -672,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -721,7 +718,7 @@
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>6</v>
@@ -734,10 +731,10 @@
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="12">
         <v>38</v>
@@ -747,10 +744,10 @@
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="12">
         <v>30</v>
@@ -760,7 +757,7 @@
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>6</v>
@@ -773,7 +770,7 @@
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>6</v>
@@ -786,10 +783,10 @@
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="12">
         <v>32</v>
@@ -799,7 +796,7 @@
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>6</v>
@@ -812,7 +809,7 @@
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>6</v>
@@ -825,7 +822,7 @@
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>6</v>
@@ -838,7 +835,7 @@
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>6</v>
@@ -851,10 +848,10 @@
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="12">
         <v>34</v>
@@ -864,7 +861,7 @@
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>6</v>
@@ -877,10 +874,10 @@
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="12">
         <v>29</v>
@@ -890,10 +887,10 @@
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="12">
         <v>27</v>
@@ -903,7 +900,7 @@
     </row>
     <row r="17" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>6</v>
@@ -916,7 +913,7 @@
     </row>
     <row r="18" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>6</v>
@@ -929,7 +926,7 @@
     </row>
     <row r="19" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>6</v>
@@ -942,7 +939,7 @@
     </row>
     <row r="20" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>6</v>
@@ -955,7 +952,7 @@
     </row>
     <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>6</v>
@@ -968,7 +965,7 @@
     </row>
     <row r="22" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>6</v>
@@ -981,7 +978,7 @@
     </row>
     <row r="23" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>6</v>
@@ -994,10 +991,10 @@
     </row>
     <row r="24" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="12">
         <v>45</v>
@@ -1007,7 +1004,7 @@
     </row>
     <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>6</v>
@@ -1020,7 +1017,7 @@
     </row>
     <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>6</v>
@@ -1033,10 +1030,10 @@
     </row>
     <row r="27" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="12">
         <v>41</v>
@@ -1046,10 +1043,10 @@
     </row>
     <row r="28" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="12">
         <v>56</v>
@@ -1059,7 +1056,7 @@
     </row>
     <row r="29" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>6</v>
@@ -1072,7 +1069,7 @@
     </row>
     <row r="30" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>6</v>
@@ -1085,7 +1082,7 @@
     </row>
     <row r="31" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>6</v>
@@ -1098,7 +1095,7 @@
     </row>
     <row r="32" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>6</v>
@@ -1111,7 +1108,7 @@
     </row>
     <row r="33" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>6</v>
@@ -1124,7 +1121,7 @@
     </row>
     <row r="34" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>6</v>
@@ -1137,10 +1134,10 @@
     </row>
     <row r="35" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="12">
         <v>34</v>
@@ -1150,10 +1147,10 @@
     </row>
     <row r="36" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="12">
         <v>44</v>
@@ -1163,7 +1160,7 @@
     </row>
     <row r="37" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>6</v>
@@ -1176,7 +1173,7 @@
     </row>
     <row r="38" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>6</v>
@@ -1189,7 +1186,7 @@
     </row>
     <row r="39" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>6</v>
@@ -1202,7 +1199,7 @@
     </row>
     <row r="40" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>6</v>
@@ -1215,7 +1212,7 @@
     </row>
     <row r="41" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>6</v>
@@ -1228,10 +1225,10 @@
     </row>
     <row r="42" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42" s="12">
         <v>41</v>
@@ -1241,10 +1238,10 @@
     </row>
     <row r="43" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43" s="12">
         <v>55</v>
@@ -1254,10 +1251,10 @@
     </row>
     <row r="44" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" s="12">
         <v>33</v>
@@ -1267,7 +1264,7 @@
     </row>
     <row r="45" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>6</v>
@@ -1280,7 +1277,7 @@
     </row>
     <row r="46" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>6</v>
@@ -1302,7 +1299,7 @@
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1317,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -1326,80 +1323,80 @@
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1415,7 +1412,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1431,31 +1428,31 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1477,13 +1474,13 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="5">
         <v>44256</v>
@@ -1492,7 +1489,7 @@
         <v>44307</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="4">
         <v>3</v>
@@ -1500,13 +1497,13 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="5">
         <v>44452</v>
@@ -1515,7 +1512,7 @@
         <v>44521</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="4">
         <v>14</v>
@@ -1523,13 +1520,13 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5">
         <v>44489</v>
@@ -1538,7 +1535,7 @@
         <v>44489</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="4">
         <v>4</v>
@@ -1546,13 +1543,13 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="5">
         <v>44510</v>
@@ -1561,7 +1558,7 @@
         <v>44515</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
@@ -1569,13 +1566,13 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="5">
         <v>44516</v>
@@ -1584,7 +1581,7 @@
         <v>44520</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" s="4">
         <v>3</v>
@@ -1592,13 +1589,13 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="5">
         <v>44318</v>
@@ -1607,7 +1604,7 @@
         <v>44318</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" s="4">
         <v>12</v>
@@ -1615,13 +1612,13 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="5">
         <v>44380</v>
@@ -1630,7 +1627,7 @@
         <v>44380</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8" s="4">
         <v>15</v>
@@ -1638,13 +1635,13 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="5">
         <v>44287</v>
@@ -1653,7 +1650,7 @@
         <v>44334</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="4">
         <v>7</v>
@@ -1661,13 +1658,13 @@
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="5">
         <v>44392</v>
@@ -1676,7 +1673,7 @@
         <v>44428</v>
       </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="4">
         <v>27</v>
@@ -1684,13 +1681,13 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="5">
         <v>44445</v>
@@ -1699,7 +1696,7 @@
         <v>44508</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="4">
         <v>55</v>
@@ -1715,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1733,16 +1730,16 @@
   <sheetData>
     <row r="1" spans="1:14" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>4</v>
@@ -1760,7 +1757,7 @@
         <v>44304</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="10"/>
@@ -1776,7 +1773,7 @@
         <v>44305</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="10"/>
@@ -1792,7 +1789,7 @@
         <v>44306</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1806,7 +1803,7 @@
         <v>44304</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1820,7 +1817,7 @@
         <v>44305</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1834,7 +1831,7 @@
         <v>44306</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1848,7 +1845,7 @@
         <v>44304</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1862,7 +1859,7 @@
         <v>44305</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1876,7 +1873,7 @@
         <v>44306</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1890,7 +1887,7 @@
         <v>44306</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1904,7 +1901,7 @@
         <v>44521</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1918,7 +1915,7 @@
         <v>44520</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
@@ -1935,7 +1932,7 @@
         <v>44519</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -1952,7 +1949,7 @@
         <v>44521</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -1969,7 +1966,7 @@
         <v>44520</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -1986,7 +1983,7 @@
         <v>44519</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
@@ -2003,7 +2000,7 @@
         <v>44521</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
@@ -2020,7 +2017,7 @@
         <v>44520</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
@@ -2037,7 +2034,7 @@
         <v>44519</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -2054,7 +2051,7 @@
         <v>44519</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
@@ -2071,7 +2068,7 @@
         <v>44489</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -2087,7 +2084,7 @@
         <v>44489</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H23" s="9"/>
       <c r="L23" s="8"/>
@@ -2104,7 +2101,7 @@
         <v>44489</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2118,7 +2115,7 @@
         <v>44489</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2132,7 +2129,7 @@
         <v>44489</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2146,7 +2143,7 @@
         <v>44489</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2160,7 +2157,7 @@
         <v>44489</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2174,7 +2171,7 @@
         <v>44515</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2188,7 +2185,7 @@
         <v>44515</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2202,7 +2199,7 @@
         <v>44515</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2216,7 +2213,7 @@
         <v>44515</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2230,7 +2227,7 @@
         <v>44515</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2244,7 +2241,7 @@
         <v>44515</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2258,7 +2255,7 @@
         <v>44515</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2272,7 +2269,7 @@
         <v>44515</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2286,7 +2283,7 @@
         <v>44520</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2300,7 +2297,7 @@
         <v>44520</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2314,7 +2311,7 @@
         <v>44519</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2328,7 +2325,7 @@
         <v>44520</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2342,7 +2339,7 @@
         <v>44519</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2356,7 +2353,7 @@
         <v>44519</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2370,7 +2367,7 @@
         <v>44334</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2384,7 +2381,7 @@
         <v>44380</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2398,7 +2395,7 @@
         <v>44334</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2412,7 +2409,7 @@
         <v>44333</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2426,7 +2423,7 @@
         <v>44428</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2440,7 +2437,7 @@
         <v>44380</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2454,7 +2451,7 @@
         <v>44332</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2468,7 +2465,7 @@
         <v>44318</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2482,7 +2479,7 @@
         <v>44318</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2496,7 +2493,7 @@
         <v>44318</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2510,7 +2507,7 @@
         <v>44318</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2524,7 +2521,7 @@
         <v>44318</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2538,7 +2535,7 @@
         <v>44318</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2552,7 +2549,7 @@
         <v>44318</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2566,7 +2563,7 @@
         <v>44318</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2580,7 +2577,7 @@
         <v>44318</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2594,7 +2591,7 @@
         <v>44318</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2608,7 +2605,7 @@
         <v>44428</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2622,7 +2619,7 @@
         <v>44428</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2636,7 +2633,7 @@
         <v>44380</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2650,7 +2647,7 @@
         <v>44380</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2664,7 +2661,7 @@
         <v>44334</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2678,7 +2675,7 @@
         <v>44333</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2692,7 +2689,7 @@
         <v>44380</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2706,7 +2703,7 @@
         <v>44380</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2720,7 +2717,7 @@
         <v>44428</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2734,7 +2731,7 @@
         <v>44428</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2748,7 +2745,7 @@
         <v>44380</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2762,7 +2759,7 @@
         <v>44380</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2776,7 +2773,7 @@
         <v>44508</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2790,7 +2787,7 @@
         <v>44507</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2804,7 +2801,7 @@
         <v>44507</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2818,7 +2815,7 @@
         <v>44507</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2832,7 +2829,7 @@
         <v>44507</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2846,7 +2843,7 @@
         <v>44508</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2860,7 +2857,7 @@
         <v>44507</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2874,7 +2871,7 @@
         <v>44508</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2888,7 +2885,7 @@
         <v>44507</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2902,7 +2899,7 @@
         <v>44507</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
